--- a/biology/Zoologie/Feuillet_(organe)/Feuillet_(organe).xlsx
+++ b/biology/Zoologie/Feuillet_(organe)/Feuillet_(organe).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le système de digestion des Ruminantia est très complexe et est constitué de plusieurs pré-estomacs et de la caillette. Le feuillet ou omasum est le troisième pré-estomac. Il est de forme sphérique d'une capacité de plusieurs litres. Il permet l'assimilation de certains nutriments et renvoie les aliments insuffisamment fermentés vers le réticulum. Une fois les aliments suffisamment fermentés, ils passent dans la caillette. Le feuillet n'est pas un organe essentiel, il est absent chez les pseudo-ruminants. En fait, il est absent chez les chameaux, les lamas et les alpagas.
 </t>
